--- a/数据整理/stocks/港股/01299-友邦保险控股有限公司.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险控股有限公司.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="208">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,403 +22,622 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>159920</t>
+  </si>
+  <si>
+    <t>002121</t>
+  </si>
+  <si>
+    <t>009896</t>
+  </si>
+  <si>
+    <t>008283</t>
+  </si>
+  <si>
+    <t>513660</t>
+  </si>
+  <si>
+    <t>008188</t>
+  </si>
+  <si>
+    <t>202801</t>
+  </si>
+  <si>
+    <t>002387</t>
+  </si>
+  <si>
+    <t>010024</t>
+  </si>
+  <si>
+    <t>009897</t>
+  </si>
+  <si>
+    <t>164705</t>
+  </si>
+  <si>
+    <t>513600</t>
+  </si>
+  <si>
+    <t>006578</t>
+  </si>
+  <si>
+    <t>006652</t>
+  </si>
+  <si>
+    <t>160924</t>
+  </si>
+  <si>
+    <t>006579</t>
+  </si>
+  <si>
+    <t>006781</t>
+  </si>
+  <si>
+    <t>159978</t>
+  </si>
+  <si>
+    <t>160925</t>
+  </si>
+  <si>
+    <t>513990</t>
+  </si>
+  <si>
+    <t>513900</t>
+  </si>
+  <si>
+    <t>162416</t>
+  </si>
+  <si>
+    <t>159809</t>
+  </si>
+  <si>
+    <t>004098</t>
+  </si>
+  <si>
+    <t>006106</t>
+  </si>
+  <si>
+    <t>005255</t>
+  </si>
+  <si>
+    <t>005707</t>
+  </si>
+  <si>
+    <t>167302</t>
+  </si>
+  <si>
     <t>010789</t>
   </si>
   <si>
-    <t>159920</t>
-  </si>
-  <si>
-    <t>160924</t>
+    <t>005646</t>
+  </si>
+  <si>
+    <t>007512</t>
+  </si>
+  <si>
+    <t>501309</t>
+  </si>
+  <si>
+    <t>166402</t>
+  </si>
+  <si>
+    <t>006477</t>
   </si>
   <si>
     <t>011124</t>
   </si>
   <si>
-    <t>164705</t>
-  </si>
-  <si>
-    <t>008283</t>
-  </si>
-  <si>
-    <t>005707</t>
-  </si>
-  <si>
-    <t>006106</t>
-  </si>
-  <si>
-    <t>006578</t>
-  </si>
-  <si>
-    <t>006579</t>
-  </si>
-  <si>
-    <t>006781</t>
-  </si>
-  <si>
-    <t>007512</t>
-  </si>
-  <si>
-    <t>162416</t>
-  </si>
-  <si>
-    <t>501309</t>
-  </si>
-  <si>
-    <t>513900</t>
-  </si>
-  <si>
-    <t>513990</t>
-  </si>
-  <si>
     <t>008973</t>
   </si>
   <si>
-    <t>009896</t>
-  </si>
-  <si>
-    <t>009897</t>
-  </si>
-  <si>
-    <t>010024</t>
-  </si>
-  <si>
-    <t>159809</t>
-  </si>
-  <si>
-    <t>159978</t>
-  </si>
-  <si>
-    <t>160925</t>
-  </si>
-  <si>
-    <t>167302</t>
-  </si>
-  <si>
-    <t>166402</t>
-  </si>
-  <si>
-    <t>002387</t>
-  </si>
-  <si>
-    <t>513660</t>
-  </si>
-  <si>
-    <t>002121</t>
-  </si>
-  <si>
-    <t>004098</t>
-  </si>
-  <si>
-    <t>513600</t>
-  </si>
-  <si>
-    <t>005255</t>
-  </si>
-  <si>
-    <t>005646</t>
-  </si>
-  <si>
-    <t>006477</t>
-  </si>
-  <si>
-    <t>006652</t>
-  </si>
-  <si>
-    <t>008188</t>
-  </si>
-  <si>
-    <t>202801</t>
+    <t>华夏恒生ETF(QDII)</t>
+  </si>
+  <si>
+    <t>广发沪港深新起点股票A</t>
+  </si>
+  <si>
+    <t>广发港股通成长精选股票A</t>
+  </si>
+  <si>
+    <t>易方达金融行业股票</t>
+  </si>
+  <si>
+    <t>华夏沪港通恒生ETF</t>
+  </si>
+  <si>
+    <t>前海开源稳健增长三年持有期混合</t>
+  </si>
+  <si>
+    <t>南方全球精选配置(QDII-FOF)</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深股票A</t>
+  </si>
+  <si>
+    <t>广发沪港深新起点股票C</t>
+  </si>
+  <si>
+    <t>广发港股通成长精选股票C</t>
+  </si>
+  <si>
+    <t>汇添富恒生指数（QDII-LOF）A</t>
+  </si>
+  <si>
+    <t>南方恒生ETF</t>
+  </si>
+  <si>
+    <t>泰康中证港股通非银行金融主题指数A</t>
+  </si>
+  <si>
+    <t>富国金融地产行业混合A</t>
+  </si>
+  <si>
+    <t>大成恒生指数（QDII-LOF）</t>
+  </si>
+  <si>
+    <t>泰康中证港股通非银行金融主题指数C</t>
+  </si>
+  <si>
+    <t>汇丰晋信港股通精选股票</t>
+  </si>
+  <si>
+    <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+  </si>
+  <si>
+    <t>大成中华沪深港300指数（LOF）A</t>
+  </si>
+  <si>
+    <t>招商上证港股通ETF</t>
+  </si>
+  <si>
+    <t>华安CES港股通精选100ETF</t>
+  </si>
+  <si>
+    <t>华宝港股通恒生香港35指数(LOF)</t>
+  </si>
+  <si>
+    <t>博时恒生沪深港通大湾区综合ETF</t>
+  </si>
+  <si>
+    <t>前海开源港股通股息率50强股票</t>
+  </si>
+  <si>
+    <t>景顺长城量化港股通股票</t>
+  </si>
+  <si>
+    <t>浦银安盛港股通量化优选灵活配置混合</t>
+  </si>
+  <si>
+    <t>富国港股通量化精选股票</t>
+  </si>
+  <si>
+    <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
   </si>
   <si>
     <t>汇添富恒生指数（QDII-LOF）C</t>
   </si>
   <si>
-    <t>华夏恒生ETF(QDII)</t>
-  </si>
-  <si>
-    <t>大成恒生指数（QDII-LOF）</t>
+    <t>中海沪港深多策略灵活配置混合</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深股票C</t>
+  </si>
+  <si>
+    <t>国泰恒生港股通指数（LOF）</t>
+  </si>
+  <si>
+    <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+  </si>
+  <si>
+    <t>中邮沪港深精选混合</t>
   </si>
   <si>
     <t>富国金融地产行业混合C</t>
   </si>
   <si>
-    <t>汇添富恒生指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>易方达金融行业股票</t>
-  </si>
-  <si>
-    <t>富国港股通量化精选股票</t>
-  </si>
-  <si>
-    <t>景顺长城量化港股通股票</t>
-  </si>
-  <si>
-    <t>泰康中证港股通非银行金融主题指数A</t>
-  </si>
-  <si>
-    <t>泰康中证港股通非银行金融主题指数C</t>
-  </si>
-  <si>
-    <t>汇丰晋信港股通精选股票</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深股票C</t>
-  </si>
-  <si>
-    <t>华宝港股通恒生香港35指数(LOF)</t>
-  </si>
-  <si>
-    <t>国泰恒生港股通指数（LOF）</t>
-  </si>
-  <si>
-    <t>华安CES港股通精选100ETF</t>
-  </si>
-  <si>
-    <t>招商上证港股通ETF</t>
-  </si>
-  <si>
     <t>大成中华沪深港300指数(LOF)C</t>
   </si>
   <si>
-    <t>广发港股通成长精选股票A</t>
-  </si>
-  <si>
-    <t>广发港股通成长精选股票C</t>
-  </si>
-  <si>
-    <t>广发沪港深新起点股票C</t>
-  </si>
-  <si>
-    <t>博时恒生沪深港通大湾区综合ETF</t>
-  </si>
-  <si>
-    <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
-  </si>
-  <si>
-    <t>大成中华沪深港300指数（LOF）A</t>
-  </si>
-  <si>
-    <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
-  </si>
-  <si>
-    <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深股票A</t>
-  </si>
-  <si>
-    <t>华夏沪港通恒生ETF</t>
-  </si>
-  <si>
-    <t>广发沪港深新起点股票A</t>
-  </si>
-  <si>
-    <t>前海开源港股通股息率50强股票</t>
-  </si>
-  <si>
-    <t>南方恒生ETF</t>
-  </si>
-  <si>
-    <t>浦银安盛港股通量化优选灵活配置混合</t>
-  </si>
-  <si>
-    <t>中海沪港深多策略灵活配置混合</t>
-  </si>
-  <si>
-    <t>中邮沪港深精选混合</t>
-  </si>
-  <si>
-    <t>富国金融地产行业混合A</t>
-  </si>
-  <si>
-    <t>前海开源稳健增长三年持有期混合</t>
-  </si>
-  <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
+    <t>88.25</t>
+  </si>
+  <si>
+    <t>55.47</t>
+  </si>
+  <si>
+    <t>86.93</t>
+  </si>
+  <si>
+    <t>12.36</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>28.78</t>
+  </si>
+  <si>
+    <t>29.26</t>
+  </si>
+  <si>
+    <t>13.26</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>91.45</t>
+  </si>
+  <si>
+    <t>88.21</t>
+  </si>
+  <si>
+    <t>61.76</t>
+  </si>
+  <si>
+    <t>94.17</t>
+  </si>
+  <si>
+    <t>97.12</t>
+  </si>
+  <si>
+    <t>58.26</t>
+  </si>
+  <si>
+    <t>31.37</t>
+  </si>
+  <si>
+    <t>93.04</t>
   </si>
   <si>
     <t>93.97</t>
   </si>
   <si>
-    <t>91.45</t>
+    <t>98.01</t>
+  </si>
+  <si>
+    <t>94.24</t>
+  </si>
+  <si>
+    <t>85.18</t>
   </si>
   <si>
     <t>94.28</t>
   </si>
   <si>
-    <t>85.18</t>
-  </si>
-  <si>
-    <t>94.17</t>
+    <t>92.97</t>
+  </si>
+  <si>
+    <t>96.29</t>
+  </si>
+  <si>
+    <t>94.11</t>
+  </si>
+  <si>
+    <t>96.09</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>94.94</t>
+  </si>
+  <si>
+    <t>97.85</t>
+  </si>
+  <si>
+    <t>88.05</t>
+  </si>
+  <si>
+    <t>87.87</t>
+  </si>
+  <si>
+    <t>92.69</t>
   </si>
   <si>
     <t>91.60</t>
   </si>
   <si>
-    <t>87.87</t>
-  </si>
-  <si>
-    <t>94.24</t>
-  </si>
-  <si>
-    <t>92.97</t>
-  </si>
-  <si>
-    <t>93.04</t>
-  </si>
-  <si>
-    <t>94.94</t>
+    <t>94.32</t>
+  </si>
+  <si>
+    <t>86.18</t>
   </si>
   <si>
     <t>93.06</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.09</t>
-  </si>
-  <si>
-    <t>94.11</t>
-  </si>
-  <si>
-    <t>61.76</t>
-  </si>
-  <si>
-    <t>88.21</t>
-  </si>
-  <si>
-    <t>97.85</t>
-  </si>
-  <si>
-    <t>96.29</t>
-  </si>
-  <si>
-    <t>94.32</t>
-  </si>
-  <si>
     <t>93.34</t>
   </si>
   <si>
-    <t>97.12</t>
-  </si>
-  <si>
-    <t>88.05</t>
-  </si>
-  <si>
-    <t>98.01</t>
-  </si>
-  <si>
-    <t>92.69</t>
-  </si>
-  <si>
-    <t>86.18</t>
-  </si>
-  <si>
     <t>75.25</t>
   </si>
   <si>
-    <t>58.26</t>
-  </si>
-  <si>
-    <t>31.37</t>
+    <t>9.59</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>10.31</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>3.72</t>
   </si>
   <si>
     <t>9.85</t>
   </si>
   <si>
-    <t>9.59</t>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>14.49</t>
+  </si>
+  <si>
+    <t>7.22</t>
   </si>
   <si>
     <t>9.86</t>
   </si>
   <si>
-    <t>7.22</t>
-  </si>
-  <si>
-    <t>9.71</t>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>8.47</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.77</t>
   </si>
   <si>
     <t>6.09</t>
   </si>
   <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>14.49</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>9.74</t>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>6.71</t>
   </si>
   <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>5.34</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>6.46</t>
-  </si>
-  <si>
-    <t>8.47</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>7.92</t>
-  </si>
-  <si>
     <t>2.68</t>
   </si>
   <si>
-    <t>10.31</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>10.44</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>4.31</t>
   </si>
   <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>2.40</t>
+    <t>8.4632</t>
+  </si>
+  <si>
+    <t>3.5834</t>
+  </si>
+  <si>
+    <t>3.3990</t>
+  </si>
+  <si>
+    <t>1.2002</t>
+  </si>
+  <si>
+    <t>1.0836</t>
+  </si>
+  <si>
+    <t>0.8749</t>
+  </si>
+  <si>
+    <t>0.7022</t>
+  </si>
+  <si>
+    <t>0.4933</t>
+  </si>
+  <si>
+    <t>0.4903</t>
+  </si>
+  <si>
+    <t>0.3828</t>
+  </si>
+  <si>
+    <t>0.2916</t>
+  </si>
+  <si>
+    <t>0.2631</t>
+  </si>
+  <si>
+    <t>0.1290</t>
+  </si>
+  <si>
+    <t>0.0996</t>
+  </si>
+  <si>
+    <t>0.0828</t>
+  </si>
+  <si>
+    <t>0.0797</t>
+  </si>
+  <si>
+    <t>0.0469</t>
+  </si>
+  <si>
+    <t>0.0388</t>
+  </si>
+  <si>
+    <t>0.0361</t>
+  </si>
+  <si>
+    <t>0.0342</t>
+  </si>
+  <si>
+    <t>0.0340</t>
+  </si>
+  <si>
+    <t>0.0312</t>
+  </si>
+  <si>
+    <t>0.0296</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>0.0183</t>
+  </si>
+  <si>
+    <t>0.0155</t>
+  </si>
+  <si>
+    <t>0.0122</t>
+  </si>
+  <si>
+    <t>0.0095</t>
+  </si>
+  <si>
+    <t>0.0089</t>
+  </si>
+  <si>
+    <t>0.0087</t>
+  </si>
+  <si>
+    <t>0.0086</t>
+  </si>
+  <si>
+    <t>0.0067</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>0.0014</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -776,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,725 +1017,947 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01299-友邦保险控股有限公司.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险控股有限公司.xlsx
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01299-友邦保险控股有限公司.xlsx
+++ b/数据整理/stocks/港股/01299-友邦保险控股有限公司.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,56 +1919,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>